--- a/data/trans_dic/P1423-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Provincia-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>10,28%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>14,44%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>6,38%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>9,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -690,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,92; 7,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,61; 3,56</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>6,85; 14,34</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>8,64; 16,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>10,67; 19,19</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 7,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>4,66; 9,19</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 11,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>7,39; 12,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 4,65</t>
         </is>
       </c>
     </row>
@@ -757,32 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>9,03%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>12,41%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>9,71%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>5,77%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>8,16%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>6,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -810,32 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,6; 8,04</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>6,79; 11,86</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>9,77; 15,84</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>7,32; 12,89</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 16,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>4,4; 7,29</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>6,42; 10,21</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>5,1; 8,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 11,4</t>
         </is>
       </c>
     </row>
@@ -867,32 +951,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>6,59%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>11,39%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>7,86%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>3,94%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>8,37%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>4,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -920,32 +1019,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,06; 11,96</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>4,42; 9,73</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>8,1; 15,24</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>5,22; 11,22</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 18,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>2,61; 5,7</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>6,43; 10,8</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
         <is>
           <t>3,15; 6,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,19; 14,22</t>
         </is>
       </c>
     </row>
@@ -967,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -977,32 +1091,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,49%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>13,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>6,67%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>3,33%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>4,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,44</t>
+          <t>1,13; 4,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,32 +1159,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5,22; 11,98</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>2,76; 6,89</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,63; 15,73</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>10,21; 17,13</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>4,33; 9,75</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 10,97</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>2,13; 4,75</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 9,88</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 10,33</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>3,48; 6,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 10,12</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1231,47 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>10,29%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>20,3%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>12,76%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>6,92%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>12,75%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>9,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1299,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>0,64; 3,89</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>6,78; 15,01</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>15,54; 26,57</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>8,75; 17,53</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 9,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>4,78; 10,0</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>9,68; 15,88</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>6,62; 12,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 6,0</t>
         </is>
       </c>
     </row>
@@ -1197,32 +1371,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>5,6%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>13,22%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>12,68%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>3,19%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>9,22%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>7,7%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1439,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>7,36; 13,55</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>3,28; 8,82</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>9,18; 17,67</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>8,68; 17,15</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 18,65</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>2,0; 4,9</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>7,11; 12,15</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>5,47; 10,33</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 14,87</t>
         </is>
       </c>
     </row>
@@ -1307,32 +1511,47 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>8,01%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>9,06%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>8,5%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>5,54%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>7,17%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>5,45%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1579,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>5,32; 9,95</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>5,94; 10,49</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>7,15; 11,52</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>6,49; 10,97</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 16,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>4,42; 7,03</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>5,94; 8,61</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="M17" s="2" t="inlineStr">
         <is>
           <t>4,33; 7,09</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 11,97</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1651,47 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>7,39%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>8,46%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>11,53%</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>6,64%</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>5,82%</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="M18" s="2" t="inlineStr">
         <is>
           <t>7,97%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1719,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>1,54; 5,83</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>5,72; 9,85</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,6; 10,52</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>9,22; 14,06</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,86; 13,84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>5,4; 7,9</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,69; 7,21</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>6,52; 9,55</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 8,94</t>
         </is>
       </c>
     </row>
@@ -1527,32 +1791,47 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>7,61%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>11,41%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>10,19%</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>5,39%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>7,85%</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
+      <c r="M20" s="2" t="inlineStr">
         <is>
           <t>6,8%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1859,47 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>4,46; 6,63</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>6,57; 8,42</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>10,44; 12,49</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>9,12; 11,26</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 12,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>4,78; 5,92</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>7,23; 8,51</t>
         </is>
       </c>
-      <c r="K21" s="2" t="inlineStr">
+      <c r="M21" s="2" t="inlineStr">
         <is>
           <t>6,26; 7,51</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 9,33</t>
         </is>
       </c>
     </row>
@@ -1618,17 +1912,17 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P1423-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,95</t>
+          <t>1,32; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,87</t>
+          <t>2,89; 8,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,26</t>
+          <t>2,74; 8,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,56</t>
+          <t>0,63; 3,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,34</t>
+          <t>6,96; 14,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 16,58</t>
+          <t>8,84; 17,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,19</t>
+          <t>10,67; 19,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,05</t>
+          <t>3,42; 7,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,19</t>
+          <t>4,34; 8,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,33</t>
+          <t>6,63; 11,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,78</t>
+          <t>7,27; 12,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,65</t>
+          <t>2,35; 4,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,12</t>
+          <t>1,39; 4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,14</t>
+          <t>2,09; 6,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,79</t>
+          <t>1,75; 4,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,04</t>
+          <t>3,63; 7,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,86</t>
+          <t>6,78; 11,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,77; 15,84</t>
+          <t>9,6; 15,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,89</t>
+          <t>7,19; 12,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,36</t>
+          <t>11,11; 16,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,29</t>
+          <t>4,46; 7,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,21</t>
+          <t>6,48; 10,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,33</t>
+          <t>5,1; 8,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,4</t>
+          <t>7,86; 11,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,49</t>
+          <t>0,3; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,49</t>
+          <t>2,99; 8,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,3</t>
+          <t>0,31; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,96</t>
+          <t>5,98; 12,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,73</t>
+          <t>4,29; 9,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,24</t>
+          <t>8,2; 15,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,22</t>
+          <t>5,57; 11,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,4</t>
+          <t>12,19; 18,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,7</t>
+          <t>2,6; 5,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,8</t>
+          <t>6,33; 10,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,63</t>
+          <t>3,21; 6,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,22</t>
+          <t>10,18; 14,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,47</t>
+          <t>0,76; 4,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,84</t>
+          <t>1,13; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,31</t>
+          <t>1,34; 5,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,98</t>
+          <t>5,11; 12,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,89</t>
+          <t>2,7; 7,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,21; 17,13</t>
+          <t>10,45; 17,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,75</t>
+          <t>4,62; 10,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,97</t>
+          <t>4,68; 11,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,75</t>
+          <t>2,2; 4,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,33</t>
+          <t>6,42; 10,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,57</t>
+          <t>3,42; 6,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,12</t>
+          <t>5,6; 10,36</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,26</t>
+          <t>1,66; 6,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,75</t>
+          <t>2,44; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,81</t>
+          <t>2,81; 9,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,89</t>
+          <t>0,67; 4,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 15,01</t>
+          <t>6,38; 15,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,57</t>
+          <t>15,73; 26,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,53</t>
+          <t>8,63; 17,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,06</t>
+          <t>3,32; 9,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,0</t>
+          <t>4,52; 9,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,88</t>
+          <t>9,7; 16,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,0</t>
+          <t>6,91; 12,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,0</t>
+          <t>2,72; 6,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,5</t>
+          <t>2,94; 9,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,09</t>
+          <t>1,1; 5,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,55</t>
+          <t>7,31; 13,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,82</t>
+          <t>3,04; 9,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,67</t>
+          <t>9,54; 17,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 17,15</t>
+          <t>9,01; 17,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,93; 18,65</t>
+          <t>12,16; 18,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,9</t>
+          <t>1,87; 5,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 12,15</t>
+          <t>6,94; 12,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,33</t>
+          <t>5,69; 10,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,87</t>
+          <t>10,48; 15,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,44</t>
+          <t>1,86; 4,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,37</t>
+          <t>3,61; 7,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,65</t>
+          <t>1,29; 3,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,95</t>
+          <t>5,3; 9,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 10,49</t>
+          <t>6,22; 10,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,52</t>
+          <t>7,01; 11,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,97</t>
+          <t>6,44; 10,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 16,07</t>
+          <t>5,8; 16,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,03</t>
+          <t>4,37; 6,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,61</t>
+          <t>5,93; 8,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,09</t>
+          <t>4,22; 6,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 11,97</t>
+          <t>6,13; 12,01</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,94</t>
+          <t>4,27; 7,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,49</t>
+          <t>1,91; 4,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,58</t>
+          <t>3,03; 5,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,83</t>
+          <t>1,49; 5,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,85</t>
+          <t>5,66; 9,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,6; 10,52</t>
+          <t>6,8; 10,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,06</t>
+          <t>9,29; 13,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,86; 13,84</t>
+          <t>9,75; 13,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,9</t>
+          <t>5,38; 7,96</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,21</t>
+          <t>4,67; 7,12</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,55</t>
+          <t>6,62; 9,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,94</t>
+          <t>4,63; 8,96</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,71</t>
+          <t>2,52; 3,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,98</t>
+          <t>3,48; 4,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,71; 3,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,63</t>
+          <t>4,52; 6,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,71; 8,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,44; 12,49</t>
+          <t>10,24; 12,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,24; 11,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,38</t>
+          <t>8,97; 12,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,92</t>
+          <t>4,88; 5,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,23; 8,51</t>
+          <t>7,23; 8,59</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,14; 7,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,28; 9,33</t>
+          <t>7,44; 9,39</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7270</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14653</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14496</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26804</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35539</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41680</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14657</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>34074</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>50192</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>56176</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20134</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3605; 13803</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8520; 23727</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8039; 24679</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1969; 12213</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18151; 38182</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25380; 48982</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30809; 55259</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9895; 20295</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23189; 46694</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38600; 65547</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42344; 72665</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14109; 28115</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12058</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18962</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15629</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28758</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45501</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65013</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50789</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69824</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57559</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>83975</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66418</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98582</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6843; 20363</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10590; 31647</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8783; 25019</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18834; 40907</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>34186; 59764</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>50273; 81783</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37601; 65875</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57226; 83023</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44434; 73787</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>66666; 103694</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52317; 85750</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81247; 118767</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16841</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27403</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22107</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38854</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26424</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52976</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25793</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55695</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30576</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>942; 10462</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9694; 27200</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>996; 9763</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18907; 38568</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14376; 33443</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27951; 51256</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18742; 39069</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42544; 64237</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16986; 37848</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42082; 71269</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21014; 43617</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>67715; 96861</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7627</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9477</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10711</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24838</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16692</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52486</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25836</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38582</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24319</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61963</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36547</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63420</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2735; 15073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4234; 20326</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4945; 18530</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15983; 38203</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10019; 26499</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40651; 66570</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17891; 38800</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22244; 52500</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16096; 36098</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>48999; 79166</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25870; 50915</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44121; 81683</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10546</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11606</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21378</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44571</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27885</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16101</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28452</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>55117</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39491</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19087</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3371; 14128</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5183; 18370</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5934; 20153</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1198; 7328</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13257; 31455</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34547; 58982</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18872; 38607</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8587; 23701</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18592; 39082</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>41927; 70073</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29691; 52418</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11906; 26956</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14149</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6687</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27441</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15582</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36752</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34629</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>38794</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17491</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>50901</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>41316</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>66235</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6532</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8046; 24974</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2883; 13769</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>19712; 37018</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8450; 25068</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26540; 49330</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24595; 46542</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31254; 48790</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10257; 27593</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>38294; 67632</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>30487; 53700</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>55195; 80381</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18294</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>34451</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14681</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>45270</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>51139</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>62829</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>58730</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>98369</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>69432</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>97279</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>73411</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>143639</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11420; 27615</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>23940; 47666</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8459; 26181</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>33106; 61519</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>39724; 68592</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>48652; 78810</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44547; 74685</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>49286; 135942</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>54734; 87443</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>80430; 117838</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>56919; 91352</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>90330; 176943</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43459</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23601</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>32608</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>35195</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>57918</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>69560</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>95223</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>83824</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>101376</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>93161</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>127831</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>119019</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>31747; 56377</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>14869; 35745</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>23595; 46658</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13834; 51523</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>44323; 75351</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>55951; 87286</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>76710; 114751</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>70008; 97665</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>82102; 121521</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>74861; 114061</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>106291; 151517</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>76151; 147523</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>101374</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>142680</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>110570</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>197367</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>257122</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>405603</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>361195</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>413127</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>358496</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>548283</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>471765</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>610494</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>82495; 121211</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>119409; 169596</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>92138; 133487</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>156248; 231927</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>226831; 288464</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>364180; 441185</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>327383; 399455</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>333079; 458157</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>324573; 398476</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>504880; 599533</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>425952; 515234</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>533889; 673135</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>